--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H2">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I2">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J2">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>32.5328191503054</v>
+        <v>0.502777</v>
       </c>
       <c r="N2">
-        <v>32.5328191503054</v>
+        <v>1.508331</v>
       </c>
       <c r="O2">
-        <v>0.9956680380561138</v>
+        <v>0.01505293423242437</v>
       </c>
       <c r="P2">
-        <v>0.9956680380561138</v>
+        <v>0.01505293423242436</v>
       </c>
       <c r="Q2">
-        <v>1251.09807628588</v>
+        <v>32.881613788892</v>
       </c>
       <c r="R2">
-        <v>1251.09807628588</v>
+        <v>295.9345241000281</v>
       </c>
       <c r="S2">
-        <v>0.01399874704773796</v>
+        <v>0.0003531017857475649</v>
       </c>
       <c r="T2">
-        <v>0.01399874704773796</v>
+        <v>0.000353101785747565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,433 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H3">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I3">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J3">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.141544098132948</v>
+        <v>32.710306</v>
       </c>
       <c r="N3">
-        <v>0.141544098132948</v>
+        <v>98.13091799999999</v>
       </c>
       <c r="O3">
-        <v>0.004331961943886175</v>
+        <v>0.9793329546508215</v>
       </c>
       <c r="P3">
-        <v>0.004331961943886175</v>
+        <v>0.9793329546508215</v>
       </c>
       <c r="Q3">
-        <v>5.44328937697023</v>
+        <v>2139.253881558776</v>
       </c>
       <c r="R3">
-        <v>5.44328937697023</v>
+        <v>19253.28493402898</v>
       </c>
       <c r="S3">
-        <v>6.09058814334182E-05</v>
+        <v>0.02297254540472075</v>
       </c>
       <c r="T3">
-        <v>6.09058814334182E-05</v>
+        <v>0.02297254540472076</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2618.64346320462</v>
+        <v>65.399996</v>
       </c>
       <c r="H4">
-        <v>2618.64346320462</v>
+        <v>196.199988</v>
       </c>
       <c r="I4">
-        <v>0.9573733069007155</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J4">
-        <v>0.9573733069007155</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.5328191503054</v>
+        <v>0.1531426666666667</v>
       </c>
       <c r="N4">
-        <v>32.5328191503054</v>
+        <v>0.459428</v>
       </c>
       <c r="O4">
-        <v>0.9956680380561138</v>
+        <v>0.004585027734982747</v>
       </c>
       <c r="P4">
-        <v>0.9956680380561138</v>
+        <v>0.004585027734982747</v>
       </c>
       <c r="Q4">
-        <v>85191.85420756531</v>
+        <v>10.01552978742933</v>
       </c>
       <c r="R4">
-        <v>85191.85420756531</v>
+        <v>90.13976808686401</v>
       </c>
       <c r="S4">
-        <v>0.9532260021691291</v>
+        <v>0.0001075525512784874</v>
       </c>
       <c r="T4">
-        <v>0.9532260021691291</v>
+        <v>0.0001075525512784875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2618.64346320462</v>
+        <v>65.399996</v>
       </c>
       <c r="H5">
-        <v>2618.64346320462</v>
+        <v>196.199988</v>
       </c>
       <c r="I5">
-        <v>0.9573733069007155</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J5">
-        <v>0.9573733069007155</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.141544098132948</v>
+        <v>0.034372</v>
       </c>
       <c r="N5">
-        <v>0.141544098132948</v>
+        <v>0.103116</v>
       </c>
       <c r="O5">
-        <v>0.004331961943886175</v>
+        <v>0.001029083381771422</v>
       </c>
       <c r="P5">
-        <v>0.004331961943886175</v>
+        <v>0.001029083381771422</v>
       </c>
       <c r="Q5">
-        <v>370.6535273310375</v>
+        <v>2.247928662512</v>
       </c>
       <c r="R5">
-        <v>370.6535273310375</v>
+        <v>20.231357962608</v>
       </c>
       <c r="S5">
-        <v>0.004147304731586359</v>
+        <v>2.413955805399869E-05</v>
       </c>
       <c r="T5">
-        <v>0.004147304731586359</v>
+        <v>2.41395580539987E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.202935382502835</v>
+        <v>2623.51945</v>
       </c>
       <c r="H6">
-        <v>0.202935382502835</v>
+        <v>7870.55835</v>
       </c>
       <c r="I6">
-        <v>7.419296325133949E-05</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J6">
-        <v>7.419296325133949E-05</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>32.5328191503054</v>
+        <v>0.502777</v>
       </c>
       <c r="N6">
-        <v>32.5328191503054</v>
+        <v>1.508331</v>
       </c>
       <c r="O6">
-        <v>0.9956680380561138</v>
+        <v>0.01505293423242437</v>
       </c>
       <c r="P6">
-        <v>0.9956680380561138</v>
+        <v>0.01505293423242436</v>
       </c>
       <c r="Q6">
-        <v>6.602060098162782</v>
+        <v>1319.04523851265</v>
       </c>
       <c r="R6">
-        <v>6.602060098162782</v>
+        <v>11871.40714661385</v>
       </c>
       <c r="S6">
-        <v>7.387156215803053E-05</v>
+        <v>0.01416467063298398</v>
       </c>
       <c r="T6">
-        <v>7.387156215803053E-05</v>
+        <v>0.01416467063298397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.202935382502835</v>
+        <v>2623.51945</v>
       </c>
       <c r="H7">
-        <v>0.202935382502835</v>
+        <v>7870.55835</v>
       </c>
       <c r="I7">
-        <v>7.419296325133949E-05</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J7">
-        <v>7.419296325133949E-05</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.141544098132948</v>
+        <v>32.710306</v>
       </c>
       <c r="N7">
-        <v>0.141544098132948</v>
+        <v>98.13091799999999</v>
       </c>
       <c r="O7">
-        <v>0.004331961943886175</v>
+        <v>0.9793329546508215</v>
       </c>
       <c r="P7">
-        <v>0.004331961943886175</v>
+        <v>0.9793329546508215</v>
       </c>
       <c r="Q7">
-        <v>0.02872430569562861</v>
+        <v>85816.12400645169</v>
       </c>
       <c r="R7">
-        <v>0.02872430569562861</v>
+        <v>772345.1160580653</v>
       </c>
       <c r="S7">
-        <v>3.214010933089482E-07</v>
+        <v>0.9215431708175185</v>
       </c>
       <c r="T7">
-        <v>3.214010933089482E-07</v>
+        <v>0.9215431708175185</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>77.93470691999789</v>
+        <v>2623.51945</v>
       </c>
       <c r="H8">
-        <v>77.93470691999789</v>
+        <v>7870.55835</v>
       </c>
       <c r="I8">
-        <v>0.02849284720686172</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J8">
-        <v>0.02849284720686172</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.5328191503054</v>
+        <v>0.1531426666666667</v>
       </c>
       <c r="N8">
-        <v>32.5328191503054</v>
+        <v>0.459428</v>
       </c>
       <c r="O8">
-        <v>0.9956680380561138</v>
+        <v>0.004585027734982747</v>
       </c>
       <c r="P8">
-        <v>0.9956680380561138</v>
+        <v>0.004585027734982747</v>
       </c>
       <c r="Q8">
-        <v>2535.435725760346</v>
+        <v>401.7727646248667</v>
       </c>
       <c r="R8">
-        <v>2535.435725760346</v>
+        <v>3615.9548816238</v>
       </c>
       <c r="S8">
-        <v>0.02836941727708863</v>
+        <v>0.004314468309390022</v>
       </c>
       <c r="T8">
-        <v>0.02836941727708863</v>
+        <v>0.004314468309390022</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2623.51945</v>
+      </c>
+      <c r="H9">
+        <v>7870.55835</v>
+      </c>
+      <c r="I9">
+        <v>0.9409906676183405</v>
+      </c>
+      <c r="J9">
+        <v>0.9409906676183405</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.034372</v>
+      </c>
+      <c r="N9">
+        <v>0.103116</v>
+      </c>
+      <c r="O9">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="P9">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="Q9">
+        <v>90.17561053540001</v>
+      </c>
+      <c r="R9">
+        <v>811.5804948186001</v>
+      </c>
+      <c r="S9">
+        <v>0.00096835785844803</v>
+      </c>
+      <c r="T9">
+        <v>0.00096835785844803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.220081</v>
+      </c>
+      <c r="H10">
+        <v>0.6602429999999999</v>
+      </c>
+      <c r="I10">
+        <v>7.89375383209421E-05</v>
+      </c>
+      <c r="J10">
+        <v>7.893753832094211E-05</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.502777</v>
+      </c>
+      <c r="N10">
+        <v>1.508331</v>
+      </c>
+      <c r="O10">
+        <v>0.01505293423242437</v>
+      </c>
+      <c r="P10">
+        <v>0.01505293423242436</v>
+      </c>
+      <c r="Q10">
+        <v>0.110651664937</v>
+      </c>
+      <c r="R10">
+        <v>0.995864984433</v>
+      </c>
+      <c r="S10">
+        <v>1.188241572814619E-06</v>
+      </c>
+      <c r="T10">
+        <v>1.18824157281462E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.220081</v>
+      </c>
+      <c r="H11">
+        <v>0.6602429999999999</v>
+      </c>
+      <c r="I11">
+        <v>7.89375383209421E-05</v>
+      </c>
+      <c r="J11">
+        <v>7.893753832094211E-05</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>32.710306</v>
+      </c>
+      <c r="N11">
+        <v>98.13091799999999</v>
+      </c>
+      <c r="O11">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="P11">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="Q11">
+        <v>7.198916854785998</v>
+      </c>
+      <c r="R11">
+        <v>64.79025169307398</v>
+      </c>
+      <c r="S11">
+        <v>7.730613263671066E-05</v>
+      </c>
+      <c r="T11">
+        <v>7.730613263671068E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.220081</v>
+      </c>
+      <c r="H12">
+        <v>0.6602429999999999</v>
+      </c>
+      <c r="I12">
+        <v>7.89375383209421E-05</v>
+      </c>
+      <c r="J12">
+        <v>7.893753832094211E-05</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1531426666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.459428</v>
+      </c>
+      <c r="O12">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="P12">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="Q12">
+        <v>0.03370379122266667</v>
+      </c>
+      <c r="R12">
+        <v>0.303334121004</v>
+      </c>
+      <c r="S12">
+        <v>3.619308025327829E-07</v>
+      </c>
+      <c r="T12">
+        <v>3.61930802532783E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.220081</v>
+      </c>
+      <c r="H13">
+        <v>0.6602429999999999</v>
+      </c>
+      <c r="I13">
+        <v>7.89375383209421E-05</v>
+      </c>
+      <c r="J13">
+        <v>7.893753832094211E-05</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.034372</v>
+      </c>
+      <c r="N13">
+        <v>0.103116</v>
+      </c>
+      <c r="O13">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="P13">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="Q13">
+        <v>0.007564624131999999</v>
+      </c>
+      <c r="R13">
+        <v>0.06808161718799999</v>
+      </c>
+      <c r="S13">
+        <v>8.123330888402632E-08</v>
+      </c>
+      <c r="T13">
+        <v>8.123330888402633E-08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.250186</v>
+      </c>
+      <c r="H14">
+        <v>0.7505580000000001</v>
+      </c>
+      <c r="I14">
+        <v>8.973544723244271E-05</v>
+      </c>
+      <c r="J14">
+        <v>8.973544723244272E-05</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.502777</v>
+      </c>
+      <c r="N14">
+        <v>1.508331</v>
+      </c>
+      <c r="O14">
+        <v>0.01505293423242437</v>
+      </c>
+      <c r="P14">
+        <v>0.01505293423242436</v>
+      </c>
+      <c r="Q14">
+        <v>0.125787766522</v>
+      </c>
+      <c r="R14">
+        <v>1.132089898698</v>
+      </c>
+      <c r="S14">
+        <v>1.350781785507147E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.350781785507147E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.250186</v>
+      </c>
+      <c r="H15">
+        <v>0.7505580000000001</v>
+      </c>
+      <c r="I15">
+        <v>8.973544723244271E-05</v>
+      </c>
+      <c r="J15">
+        <v>8.973544723244272E-05</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>32.710306</v>
+      </c>
+      <c r="N15">
+        <v>98.13091799999999</v>
+      </c>
+      <c r="O15">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="P15">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="Q15">
+        <v>8.183660616915999</v>
+      </c>
+      <c r="R15">
+        <v>73.65294555224401</v>
+      </c>
+      <c r="S15">
+        <v>8.7880880675061E-05</v>
+      </c>
+      <c r="T15">
+        <v>8.788088067506101E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.250186</v>
+      </c>
+      <c r="H16">
+        <v>0.7505580000000001</v>
+      </c>
+      <c r="I16">
+        <v>8.973544723244271E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.973544723244272E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1531426666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.459428</v>
+      </c>
+      <c r="O16">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="P16">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="Q16">
+        <v>0.03831415120266667</v>
+      </c>
+      <c r="R16">
+        <v>0.344827360824</v>
+      </c>
+      <c r="S16">
+        <v>4.114395143718306E-07</v>
+      </c>
+      <c r="T16">
+        <v>4.114395143718306E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.250186</v>
+      </c>
+      <c r="H17">
+        <v>0.7505580000000001</v>
+      </c>
+      <c r="I17">
+        <v>8.973544723244271E-05</v>
+      </c>
+      <c r="J17">
+        <v>8.973544723244272E-05</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.034372</v>
+      </c>
+      <c r="N17">
+        <v>0.103116</v>
+      </c>
+      <c r="O17">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="P17">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="Q17">
+        <v>0.008599393192000001</v>
+      </c>
+      <c r="R17">
+        <v>0.07739453872800001</v>
+      </c>
+      <c r="S17">
+        <v>9.234525750273314E-08</v>
+      </c>
+      <c r="T17">
+        <v>9.234525750273316E-08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H18">
+        <v>295.950316</v>
+      </c>
+      <c r="I18">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J18">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.502777</v>
+      </c>
+      <c r="N18">
+        <v>1.508331</v>
+      </c>
+      <c r="O18">
+        <v>0.01505293423242437</v>
+      </c>
+      <c r="P18">
+        <v>0.01505293423242436</v>
+      </c>
+      <c r="Q18">
+        <v>49.59900400917734</v>
+      </c>
+      <c r="R18">
+        <v>446.391036082596</v>
+      </c>
+      <c r="S18">
+        <v>0.0005326227903345037</v>
+      </c>
+      <c r="T18">
+        <v>0.0005326227903345036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H19">
+        <v>295.950316</v>
+      </c>
+      <c r="I19">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J19">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>32.710306</v>
+      </c>
+      <c r="N19">
+        <v>98.13091799999999</v>
+      </c>
+      <c r="O19">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="P19">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="Q19">
+        <v>3226.875132385565</v>
+      </c>
+      <c r="R19">
+        <v>29041.87619147008</v>
+      </c>
+      <c r="S19">
+        <v>0.0346520514152705</v>
+      </c>
+      <c r="T19">
+        <v>0.0346520514152705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>77.93470691999789</v>
-      </c>
-      <c r="H9">
-        <v>77.93470691999789</v>
-      </c>
-      <c r="I9">
-        <v>0.02849284720686172</v>
-      </c>
-      <c r="J9">
-        <v>0.02849284720686172</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.141544098132948</v>
-      </c>
-      <c r="N9">
-        <v>0.141544098132948</v>
-      </c>
-      <c r="O9">
-        <v>0.004331961943886175</v>
-      </c>
-      <c r="P9">
-        <v>0.004331961943886175</v>
-      </c>
-      <c r="Q9">
-        <v>11.03119780424672</v>
-      </c>
-      <c r="R9">
-        <v>11.03119780424672</v>
-      </c>
-      <c r="S9">
-        <v>0.0001234299297730885</v>
-      </c>
-      <c r="T9">
-        <v>0.0001234299297730885</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H20">
+        <v>295.950316</v>
+      </c>
+      <c r="I20">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J20">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1531426666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.459428</v>
+      </c>
+      <c r="O20">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="P20">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="Q20">
+        <v>15.10754019769422</v>
+      </c>
+      <c r="R20">
+        <v>135.967861779248</v>
+      </c>
+      <c r="S20">
+        <v>0.0001622335039973324</v>
+      </c>
+      <c r="T20">
+        <v>0.0001622335039973324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H21">
+        <v>295.950316</v>
+      </c>
+      <c r="I21">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J21">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.034372</v>
+      </c>
+      <c r="N21">
+        <v>0.103116</v>
+      </c>
+      <c r="O21">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="P21">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="Q21">
+        <v>3.390801420517333</v>
+      </c>
+      <c r="R21">
+        <v>30.517212784656</v>
+      </c>
+      <c r="S21">
+        <v>3.641238670300662E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.641238670300662E-05</v>
       </c>
     </row>
   </sheetData>
